--- a/aichan/548417991710499753_2021-07-17_21-01-54.xlsx
+++ b/aichan/548417991710499753_2021-07-17_21-01-54.xlsx
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -28749,7 +28749,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -35464,7 +35464,7 @@
         </is>
       </c>
       <c r="I490" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J490" t="inlineStr">
         <is>
@@ -37405,11 +37405,11 @@
         </is>
       </c>
       <c r="I517" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38608,7 +38608,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -43118,7 +43118,7 @@
         </is>
       </c>
       <c r="I595" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J595" t="inlineStr">
         <is>
@@ -43772,7 +43772,7 @@
         </is>
       </c>
       <c r="I604" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J604" t="inlineStr">
         <is>
@@ -45046,7 +45046,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45551,7 +45551,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -45772,7 +45772,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -47218,7 +47218,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -49036,7 +49036,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -50676,7 +50676,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -52145,7 +52145,7 @@
         </is>
       </c>
       <c r="I720" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J720" t="inlineStr">
         <is>
@@ -52216,7 +52216,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -53085,7 +53085,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -55599,7 +55599,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -55674,7 +55674,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -55808,7 +55808,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -55946,7 +55946,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -56289,7 +56289,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -57291,7 +57291,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -57800,7 +57800,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -60123,7 +60123,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -63018,7 +63018,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -65360,7 +65360,7 @@
         </is>
       </c>
       <c r="I902" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J902" t="inlineStr">
         <is>
@@ -68651,7 +68651,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -72252,7 +72252,7 @@
         </is>
       </c>
       <c r="I996" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J996" t="inlineStr">
         <is>
@@ -74250,7 +74250,7 @@
         </is>
       </c>
       <c r="I1024" t="n">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="J1024" t="inlineStr">
         <is>
@@ -76353,7 +76353,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -77779,7 +77779,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1073" t="inlineStr">
@@ -80823,7 +80823,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1115" t="inlineStr">
@@ -82516,7 +82516,7 @@
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1138" t="inlineStr">
@@ -83175,7 +83175,7 @@
         </is>
       </c>
       <c r="I1147" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J1147" t="inlineStr">
         <is>
@@ -83258,7 +83258,7 @@
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1148" t="inlineStr">
@@ -88590,7 +88590,7 @@
         </is>
       </c>
       <c r="I1221" t="n">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="J1221" t="inlineStr">
         <is>
@@ -88961,7 +88961,7 @@
         </is>
       </c>
       <c r="I1226" t="n">
-        <v>2078</v>
+        <v>2089</v>
       </c>
       <c r="J1226" t="inlineStr">
         <is>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="I1227" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J1227" t="inlineStr">
         <is>
@@ -89122,7 +89122,7 @@
       </c>
       <c r="J1228" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1228" t="inlineStr">
@@ -92774,7 +92774,7 @@
         </is>
       </c>
       <c r="I1276" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1276" t="inlineStr">
         <is>
@@ -94760,7 +94760,7 @@
         </is>
       </c>
       <c r="I1303" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J1303" t="inlineStr">
         <is>

--- a/aichan/548417991710499753_2021-07-17_21-01-54.xlsx
+++ b/aichan/548417991710499753_2021-07-17_21-01-54.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14227,7 +14227,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20603,7 +20603,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25340,7 +25340,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25561,7 +25561,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25774,7 +25774,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26559,7 +26559,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27403,7 +27403,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28749,7 +28749,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29317,7 +29317,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29921,7 +29921,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30000,7 +30000,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -30809,7 +30809,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31161,7 +31161,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -31798,7 +31798,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -31948,7 +31948,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -32157,7 +32157,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32386,7 +32386,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -32626,7 +32626,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -32878,7 +32878,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33507,7 +33507,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -33587,7 +33587,7 @@
         </is>
       </c>
       <c r="I464" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J464" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -33725,7 +33725,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -33800,7 +33800,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -34320,7 +34320,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -34529,7 +34529,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -34608,7 +34608,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -34675,7 +34675,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -34959,7 +34959,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35926,7 +35926,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36202,7 +36202,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36557,7 +36557,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37117,7 +37117,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -37263,7 +37263,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -37488,7 +37488,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -37705,7 +37705,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -37855,7 +37855,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38281,7 +38281,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -38766,7 +38766,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -38841,7 +38841,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -38912,7 +38912,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39212,7 +39212,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39362,7 +39362,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -39508,7 +39508,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -39579,7 +39579,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40097,7 +40097,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -40164,7 +40164,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40385,7 +40385,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -40598,7 +40598,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -40740,7 +40740,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -40890,7 +40890,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41249,7 +41249,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41391,7 +41391,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -41690,7 +41690,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -41757,7 +41757,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -41824,7 +41824,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42179,7 +42179,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42317,7 +42317,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -42396,7 +42396,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42757,7 +42757,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -42966,7 +42966,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43122,7 +43122,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -43201,7 +43201,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43343,7 +43343,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -43410,7 +43410,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -43477,7 +43477,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -43548,7 +43548,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -43989,7 +43989,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -44561,7 +44561,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -44707,7 +44707,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -44774,7 +44774,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -44845,7 +44845,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -44979,7 +44979,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -45046,7 +45046,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45117,7 +45117,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -45184,7 +45184,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -45338,7 +45338,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -46119,7 +46119,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -46411,7 +46411,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -46461,7 +46461,7 @@
         </is>
       </c>
       <c r="F642" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G642" t="inlineStr">
         <is>
@@ -46636,7 +46636,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47289,7 +47289,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -48293,11 +48293,11 @@
         </is>
       </c>
       <c r="I667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -48727,7 +48727,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -48963,7 +48963,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49107,7 +49107,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -49454,7 +49454,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -50325,7 +50325,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -50755,7 +50755,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -50822,7 +50822,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51631,7 +51631,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -52149,7 +52149,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -52287,7 +52287,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -52446,7 +52446,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -52809,7 +52809,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -52880,7 +52880,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -53085,7 +53085,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -54210,7 +54210,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54289,7 +54289,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -54361,7 +54361,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -54566,7 +54566,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -54712,7 +54712,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -54783,7 +54783,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -55094,7 +55094,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -55161,7 +55161,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -55240,7 +55240,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -55745,7 +55745,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56151,7 +56151,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -56360,7 +56360,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -56648,7 +56648,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -56999,7 +56999,7 @@
         </is>
       </c>
       <c r="I787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J787" t="inlineStr">
         <is>
@@ -57441,7 +57441,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -57520,7 +57520,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -57654,7 +57654,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -57800,7 +57800,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -59100,7 +59100,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -59175,7 +59175,7 @@
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -59475,7 +59475,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -59689,7 +59689,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -59764,7 +59764,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -59831,7 +59831,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -60123,7 +60123,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60202,7 +60202,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -60341,7 +60341,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -60552,7 +60552,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61132,7 +61132,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -61350,7 +61350,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -61496,7 +61496,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -61868,7 +61868,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62228,7 +62228,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -62371,7 +62371,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -62663,7 +62663,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
@@ -62876,7 +62876,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -63235,7 +63235,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
@@ -63465,11 +63465,11 @@
         </is>
       </c>
       <c r="I876" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -63840,7 +63840,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -63919,7 +63919,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -64061,7 +64061,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64204,7 +64204,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -64271,7 +64271,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -64346,7 +64346,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -64497,7 +64497,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -64572,11 +64572,11 @@
         </is>
       </c>
       <c r="I891" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -64643,7 +64643,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -64714,7 +64714,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -65209,7 +65209,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65284,7 +65284,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -65652,7 +65652,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -65798,7 +65798,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -66098,7 +66098,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66232,7 +66232,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -66295,7 +66295,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -66664,7 +66664,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -66745,7 +66745,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -66816,7 +66816,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -66887,7 +66887,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -67100,7 +67100,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -67246,7 +67246,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -67619,7 +67619,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -67982,7 +67982,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68363,7 +68363,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -68434,7 +68434,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -68651,7 +68651,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69395,7 +69395,7 @@
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -70190,7 +70190,7 @@
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
@@ -70474,7 +70474,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -71068,7 +71068,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -71214,7 +71214,7 @@
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K982" t="inlineStr">
@@ -71293,7 +71293,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -71439,7 +71439,7 @@
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K985" t="inlineStr">
@@ -71510,7 +71510,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -71589,7 +71589,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -71814,7 +71814,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -71893,7 +71893,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -71972,7 +71972,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72110,7 +72110,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -72549,7 +72549,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -72908,7 +72908,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -73180,7 +73180,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -73322,7 +73322,7 @@
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -73661,7 +73661,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -73891,7 +73891,7 @@
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -74250,7 +74250,7 @@
         </is>
       </c>
       <c r="I1024" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="J1024" t="inlineStr">
         <is>
@@ -74333,7 +74333,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -74475,7 +74475,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -74629,7 +74629,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -74846,7 +74846,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -74980,7 +74980,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -75051,7 +75051,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -75773,7 +75773,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -75852,7 +75852,7 @@
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -75990,7 +75990,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -76503,7 +76503,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -76724,7 +76724,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -76791,7 +76791,7 @@
       </c>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1059" t="inlineStr">
@@ -76937,7 +76937,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -77016,7 +77016,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -77087,7 +77087,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -77360,7 +77360,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -77507,7 +77507,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1069" t="inlineStr">
@@ -77779,7 +77779,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1073" t="inlineStr">
@@ -77850,7 +77850,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1074" t="inlineStr">
@@ -77917,7 +77917,7 @@
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1075" t="inlineStr">
@@ -78426,7 +78426,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1082" t="inlineStr">
@@ -78722,7 +78722,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -78876,7 +78876,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1088" t="inlineStr">
@@ -78943,7 +78943,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -79016,7 +79016,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1090" t="inlineStr">
@@ -79513,7 +79513,7 @@
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1097" t="inlineStr">
@@ -80026,7 +80026,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1104" t="inlineStr">
@@ -80823,7 +80823,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1115" t="inlineStr">
@@ -81632,7 +81632,7 @@
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1126" t="inlineStr">
@@ -81841,7 +81841,7 @@
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1129" t="inlineStr">
@@ -81991,7 +81991,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -82358,7 +82358,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1136" t="inlineStr">
@@ -82437,7 +82437,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -82516,7 +82516,7 @@
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1138" t="inlineStr">
@@ -82812,7 +82812,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1142" t="inlineStr">
@@ -83258,7 +83258,7 @@
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1148" t="inlineStr">
@@ -83405,7 +83405,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1150" t="inlineStr">
@@ -83476,7 +83476,7 @@
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1151" t="inlineStr">
@@ -84052,7 +84052,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -84419,7 +84419,7 @@
       </c>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1164" t="inlineStr">
@@ -84486,7 +84486,7 @@
       </c>
       <c r="J1165" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1165" t="inlineStr">
@@ -85295,7 +85295,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1176" t="inlineStr">
@@ -85366,7 +85366,7 @@
       </c>
       <c r="J1177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1177" t="inlineStr">
@@ -85658,7 +85658,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -86175,7 +86175,7 @@
       </c>
       <c r="J1188" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1188" t="inlineStr">
@@ -86321,7 +86321,7 @@
       </c>
       <c r="J1190" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1190" t="inlineStr">
@@ -86396,7 +86396,7 @@
       </c>
       <c r="J1191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1191" t="inlineStr">
@@ -86626,7 +86626,7 @@
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1194" t="inlineStr">
@@ -86847,7 +86847,7 @@
       </c>
       <c r="J1197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1197" t="inlineStr">
@@ -87557,7 +87557,7 @@
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1207" t="inlineStr">
@@ -87795,7 +87795,7 @@
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1210" t="inlineStr">
@@ -88590,7 +88590,7 @@
         </is>
       </c>
       <c r="I1221" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J1221" t="inlineStr">
         <is>
@@ -88961,7 +88961,7 @@
         </is>
       </c>
       <c r="I1226" t="n">
-        <v>2089</v>
+        <v>2095</v>
       </c>
       <c r="J1226" t="inlineStr">
         <is>
@@ -89486,7 +89486,7 @@
       </c>
       <c r="J1233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1233" t="inlineStr">
@@ -89565,7 +89565,7 @@
       </c>
       <c r="J1234" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1234" t="inlineStr">
@@ -89719,7 +89719,7 @@
       </c>
       <c r="J1236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1236" t="inlineStr">
@@ -89799,7 +89799,7 @@
       </c>
       <c r="J1237" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1237" t="inlineStr">
@@ -91313,7 +91313,7 @@
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1256" t="inlineStr">
@@ -92055,7 +92055,7 @@
       </c>
       <c r="J1266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1266" t="inlineStr">
@@ -94195,7 +94195,7 @@
       </c>
       <c r="J1295" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1295" t="inlineStr">

--- a/aichan/548417991710499753_2021-07-17_21-01-54.xlsx
+++ b/aichan/548417991710499753_2021-07-17_21-01-54.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2487,11 +2487,11 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14227,7 +14227,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15013,7 +15013,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18415,7 +18415,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18558,7 +18558,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18929,7 +18929,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19493,7 +19493,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19765,7 +19765,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19836,7 +19836,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19972,7 +19972,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20394,7 +20394,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20895,7 +20895,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -22177,7 +22177,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22674,7 +22674,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23670,7 +23670,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23737,7 +23737,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24350,7 +24350,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26413,7 +26413,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27060,7 +27060,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27706,7 +27706,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29037,7 +29037,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29317,7 +29317,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -29846,7 +29846,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30075,7 +30075,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -30450,7 +30450,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -30671,7 +30671,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -30809,7 +30809,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -30881,7 +30881,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31309,7 +31309,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -31380,7 +31380,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -31447,7 +31447,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -31514,7 +31514,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -31581,7 +31581,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -31719,7 +31719,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -31798,7 +31798,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -31948,7 +31948,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -32157,7 +32157,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32311,7 +32311,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -32386,7 +32386,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -32559,7 +32559,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -32878,7 +32878,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33024,7 +33024,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33301,7 +33301,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -33507,7 +33507,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -33949,7 +33949,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34249,7 +34249,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -34320,7 +34320,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -34391,7 +34391,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -34462,7 +34462,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34608,7 +34608,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -34884,7 +34884,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -34959,7 +34959,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35097,7 +35097,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35247,7 +35247,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35468,7 +35468,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -35547,7 +35547,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -35618,7 +35618,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -35772,7 +35772,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -35926,7 +35926,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36060,7 +36060,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -36202,7 +36202,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36557,7 +36557,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -36979,7 +36979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37263,7 +37263,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -37409,7 +37409,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37488,7 +37488,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -37634,7 +37634,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -37705,7 +37705,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -37855,7 +37855,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -37918,7 +37918,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -37997,7 +37997,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -38608,7 +38608,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -38766,7 +38766,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -38841,7 +38841,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -39212,7 +39212,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39362,7 +39362,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -39508,7 +39508,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -39579,7 +39579,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40306,7 +40306,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -40598,7 +40598,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -40669,7 +40669,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -40740,7 +40740,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -41619,7 +41619,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -41895,7 +41895,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -41974,7 +41974,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42112,7 +42112,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -42396,7 +42396,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42757,7 +42757,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -42966,7 +42966,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43118,11 +43118,11 @@
         </is>
       </c>
       <c r="I595" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -43201,7 +43201,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43989,7 +43989,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -45046,7 +45046,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45338,7 +45338,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -45409,7 +45409,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -45551,7 +45551,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -45839,7 +45839,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -46119,7 +46119,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -46198,7 +46198,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46340,7 +46340,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -46636,7 +46636,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -46926,7 +46926,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -46993,7 +46993,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47060,7 +47060,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -47218,7 +47218,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -47289,7 +47289,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -47356,7 +47356,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -47508,7 +47508,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -47579,7 +47579,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -47650,7 +47650,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -47796,7 +47796,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -47946,7 +47946,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -48084,7 +48084,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -48155,7 +48155,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -49454,7 +49454,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -50258,7 +50258,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -50676,7 +50676,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -50822,7 +50822,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -50901,7 +50901,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51861,7 +51861,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -51999,7 +51999,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -52149,7 +52149,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -52216,7 +52216,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -52287,7 +52287,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -52521,7 +52521,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -52809,7 +52809,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53085,7 +53085,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -53310,7 +53310,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -53907,7 +53907,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -54139,7 +54139,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -54361,7 +54361,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -54712,7 +54712,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -54929,7 +54929,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55015,7 +55015,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -55311,7 +55311,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -55674,7 +55674,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -55745,7 +55745,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -55808,7 +55808,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -55946,7 +55946,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -56013,7 +56013,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56084,7 +56084,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -56151,7 +56151,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -56289,7 +56289,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -56648,7 +56648,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -56723,7 +56723,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -56924,7 +56924,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -57441,7 +57441,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -57654,7 +57654,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -57800,7 +57800,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -58376,7 +58376,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -58895,7 +58895,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -59689,7 +59689,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -59977,7 +59977,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -60123,7 +60123,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60844,7 +60844,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61057,7 +61057,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -61204,7 +61204,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
@@ -61496,7 +61496,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -61868,7 +61868,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62148,7 +62148,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -62228,7 +62228,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -62295,7 +62295,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
@@ -62371,7 +62371,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -62663,7 +62663,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
@@ -62955,7 +62955,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -63018,7 +63018,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -63402,7 +63402,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -63840,7 +63840,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -64643,7 +64643,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -64714,7 +64714,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -64789,7 +64789,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -64856,7 +64856,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65284,7 +65284,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -65360,7 +65360,7 @@
         </is>
       </c>
       <c r="I902" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J902" t="inlineStr">
         <is>
@@ -65514,7 +65514,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -65652,7 +65652,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -65727,7 +65727,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -65798,7 +65798,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -65873,7 +65873,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66098,7 +66098,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66593,7 +66593,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -66745,7 +66745,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -66816,7 +66816,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -67832,7 +67832,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -67982,7 +67982,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68061,7 +68061,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -68513,7 +68513,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -68588,7 +68588,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -68651,7 +68651,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69395,7 +69395,7 @@
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -70612,7 +70612,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -71214,7 +71214,7 @@
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K982" t="inlineStr">
@@ -71510,7 +71510,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -71814,7 +71814,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -71972,7 +71972,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72110,7 +72110,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -72252,11 +72252,11 @@
         </is>
       </c>
       <c r="I996" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -72545,11 +72545,11 @@
         </is>
       </c>
       <c r="I1000" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -72695,7 +72695,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -72908,7 +72908,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -73247,7 +73247,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -73590,7 +73590,7 @@
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1015" t="inlineStr">
@@ -73891,7 +73891,7 @@
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -74250,11 +74250,11 @@
         </is>
       </c>
       <c r="I1024" t="n">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -74333,7 +74333,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -74625,11 +74625,11 @@
         </is>
       </c>
       <c r="I1029" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -74846,7 +74846,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -75051,7 +75051,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -75276,7 +75276,7 @@
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -75418,7 +75418,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -75706,7 +75706,7 @@
       </c>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -75773,7 +75773,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -75852,7 +75852,7 @@
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -75990,7 +75990,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -76349,7 +76349,7 @@
         </is>
       </c>
       <c r="I1053" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
@@ -76937,7 +76937,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -77016,7 +77016,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -77087,7 +77087,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -77293,7 +77293,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -78426,7 +78426,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1082" t="inlineStr">
@@ -78722,7 +78722,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -78801,7 +78801,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1087" t="inlineStr">
@@ -78943,7 +78943,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -79793,7 +79793,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr">
@@ -79868,7 +79868,7 @@
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1102" t="inlineStr">
@@ -80026,7 +80026,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1104" t="inlineStr">
@@ -80168,7 +80168,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1106" t="inlineStr">
@@ -80306,7 +80306,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1108" t="inlineStr">
@@ -80744,7 +80744,7 @@
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1114" t="inlineStr">
@@ -80823,7 +80823,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1115" t="inlineStr">
@@ -80969,7 +80969,7 @@
       </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1117" t="inlineStr">
@@ -81048,7 +81048,7 @@
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1118" t="inlineStr">
@@ -81841,7 +81841,7 @@
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1129" t="inlineStr">
@@ -81916,7 +81916,7 @@
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1130" t="inlineStr">
@@ -81991,7 +81991,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -82437,7 +82437,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -82812,7 +82812,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1142" t="inlineStr">
@@ -83175,7 +83175,7 @@
         </is>
       </c>
       <c r="I1147" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J1147" t="inlineStr">
         <is>
@@ -83405,7 +83405,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1150" t="inlineStr">
@@ -83472,11 +83472,11 @@
         </is>
       </c>
       <c r="I1151" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1151" t="inlineStr">
@@ -83689,7 +83689,7 @@
         </is>
       </c>
       <c r="I1154" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J1154" t="inlineStr">
         <is>
@@ -84052,7 +84052,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -84352,7 +84352,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1163" t="inlineStr">
@@ -84419,7 +84419,7 @@
       </c>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1164" t="inlineStr">
@@ -84486,7 +84486,7 @@
       </c>
       <c r="J1165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1165" t="inlineStr">
@@ -84774,7 +84774,7 @@
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1169" t="inlineStr">
@@ -85149,7 +85149,7 @@
       </c>
       <c r="J1174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1174" t="inlineStr">
@@ -85295,7 +85295,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1176" t="inlineStr">
@@ -85366,7 +85366,7 @@
       </c>
       <c r="J1177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1177" t="inlineStr">
@@ -85441,7 +85441,7 @@
       </c>
       <c r="J1178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1178" t="inlineStr">
@@ -85583,7 +85583,7 @@
       </c>
       <c r="J1180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1180" t="inlineStr">
@@ -85658,7 +85658,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -85729,7 +85729,7 @@
       </c>
       <c r="J1182" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1182" t="inlineStr">
@@ -85952,7 +85952,7 @@
       </c>
       <c r="J1185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1185" t="inlineStr">
@@ -86025,7 +86025,7 @@
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1186" t="inlineStr">
@@ -86242,7 +86242,7 @@
       </c>
       <c r="J1189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1189" t="inlineStr">
@@ -86317,11 +86317,11 @@
         </is>
       </c>
       <c r="I1190" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1190" t="inlineStr">
@@ -86396,7 +86396,7 @@
       </c>
       <c r="J1191" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1191" t="inlineStr">
@@ -86626,7 +86626,7 @@
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1194" t="inlineStr">
@@ -86768,7 +86768,7 @@
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1196" t="inlineStr">
@@ -86981,11 +86981,11 @@
         </is>
       </c>
       <c r="I1199" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1199" t="inlineStr">
@@ -87281,7 +87281,7 @@
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1203" t="inlineStr">
@@ -87419,7 +87419,7 @@
       </c>
       <c r="J1205" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1205" t="inlineStr">
@@ -87557,7 +87557,7 @@
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1207" t="inlineStr">
@@ -87795,7 +87795,7 @@
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1210" t="inlineStr">
@@ -88014,7 +88014,7 @@
       </c>
       <c r="J1213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1213" t="inlineStr">
@@ -88440,7 +88440,7 @@
       </c>
       <c r="J1219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1219" t="inlineStr">
@@ -88590,7 +88590,7 @@
         </is>
       </c>
       <c r="I1221" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="J1221" t="inlineStr">
         <is>
@@ -88886,7 +88886,7 @@
       </c>
       <c r="J1225" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1225" t="inlineStr">
@@ -88961,7 +88961,7 @@
         </is>
       </c>
       <c r="I1226" t="n">
-        <v>2095</v>
+        <v>2105</v>
       </c>
       <c r="J1226" t="inlineStr">
         <is>
@@ -89047,11 +89047,11 @@
         </is>
       </c>
       <c r="I1227" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1227" t="inlineStr">
@@ -89415,7 +89415,7 @@
       </c>
       <c r="J1232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1232" t="inlineStr">
@@ -89565,7 +89565,7 @@
       </c>
       <c r="J1234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1234" t="inlineStr">
@@ -89719,7 +89719,7 @@
       </c>
       <c r="J1236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1236" t="inlineStr">
@@ -89799,7 +89799,7 @@
       </c>
       <c r="J1237" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1237" t="inlineStr">
@@ -90265,7 +90265,7 @@
       </c>
       <c r="J1243" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1243" t="inlineStr">
@@ -90428,7 +90428,7 @@
         </is>
       </c>
       <c r="I1245" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J1245" t="inlineStr">
         <is>
@@ -90511,7 +90511,7 @@
       </c>
       <c r="J1246" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1246" t="inlineStr">
@@ -90991,7 +90991,7 @@
       </c>
       <c r="J1252" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1252" t="inlineStr">
@@ -91062,7 +91062,7 @@
       </c>
       <c r="J1253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1253" t="inlineStr">
@@ -91313,7 +91313,7 @@
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1256" t="inlineStr">
@@ -91542,7 +91542,7 @@
       </c>
       <c r="J1259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1259" t="inlineStr">
@@ -91629,7 +91629,7 @@
       </c>
       <c r="J1260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1260" t="inlineStr">
@@ -91696,7 +91696,7 @@
       </c>
       <c r="J1261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1261" t="inlineStr">
@@ -91763,7 +91763,7 @@
       </c>
       <c r="J1262" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1262" t="inlineStr">
@@ -91838,7 +91838,7 @@
       </c>
       <c r="J1263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1263" t="inlineStr">
@@ -91980,7 +91980,7 @@
       </c>
       <c r="J1265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1265" t="inlineStr">
@@ -92130,7 +92130,7 @@
       </c>
       <c r="J1267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1267" t="inlineStr">
@@ -92197,7 +92197,7 @@
       </c>
       <c r="J1268" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1268" t="inlineStr">
@@ -92995,7 +92995,7 @@
       </c>
       <c r="J1279" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1279" t="inlineStr">
@@ -93595,7 +93595,7 @@
       </c>
       <c r="J1287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1287" t="inlineStr">
@@ -93899,7 +93899,7 @@
       </c>
       <c r="J1291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1291" t="inlineStr">
@@ -94918,7 +94918,7 @@
       </c>
       <c r="J1305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1305" t="inlineStr">
